--- a/______תקציב-הבקשה-15.1.24-.xlsx
+++ b/______תקציב-הבקשה-15.1.24-.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nir\dreams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4851FE5B-F8B2-4455-8908-BEA4EBBC6758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5376A2A4-3BBF-4CC8-A3E7-5D2F920E1420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tWTXP1/5Jv00TUBSb3XDU2uH5kk8rhBCZiPiaOJBLHqxVuOG9S7AWcMVWs30YqV4ElOp3/SvUtaRxm44mmLpNg==" workbookSaltValue="Nt159Y7cG2hsXDl0W+WMeQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="839" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="839" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="הנחיות למילוי-התחל כאן" sheetId="15" r:id="rId1"/>
@@ -10579,8 +10579,8 @@
   <dimension ref="A1:AW381"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="116" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:D6"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -10715,7 +10715,9 @@
       <c r="E6" s="390" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="396"/>
+      <c r="F6" s="396">
+        <v>45809</v>
+      </c>
       <c r="G6" s="190" t="s">
         <v>98</v>
       </c>
@@ -10739,7 +10741,9 @@
       <c r="E7" s="390" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="396"/>
+      <c r="F7" s="396">
+        <v>46173</v>
+      </c>
       <c r="G7" s="191"/>
       <c r="H7" s="422"/>
       <c r="I7" s="9"/>
@@ -10762,7 +10766,7 @@
       </c>
       <c r="F8" s="397">
         <f>DATEDIF($F$6,$F$7+1,"m")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G8" s="190" t="s">
         <v>217</v>
@@ -11037,7 +11041,7 @@
       </c>
       <c r="AB14" s="165">
         <f t="shared" ref="AB14" si="6">IFERROR(INDEX(D$13:D$25,$Z14),"")</f>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="AC14" s="165"/>
     </row>
@@ -11098,7 +11102,7 @@
       </c>
       <c r="AB15" s="165">
         <f t="shared" ref="AB15:AB23" si="9">IFERROR(INDEX(D$13:D$25,$Z15),"")</f>
-        <v>35500</v>
+        <v>29300</v>
       </c>
       <c r="AC15" s="165"/>
     </row>
@@ -11112,11 +11116,11 @@
       </c>
       <c r="D16" s="386">
         <f>IFERROR(R16*'חומרים '!H45,"")</f>
-        <v>35500</v>
+        <v>29300</v>
       </c>
       <c r="E16" s="413">
         <f t="shared" si="3"/>
-        <v>0.51536414226953786</v>
+        <v>0.37717228062647501</v>
       </c>
       <c r="F16" s="404" t="str">
         <f t="shared" ref="F16" si="10">IF($G$5&gt;0,C16,"")</f>
@@ -11156,7 +11160,7 @@
       </c>
       <c r="X16" s="184">
         <f>D16</f>
-        <v>35500</v>
+        <v>29300</v>
       </c>
       <c r="Y16" s="165">
         <f>IF(D16=0,"",W16)</f>
@@ -11186,11 +11190,11 @@
       </c>
       <c r="D17" s="386">
         <f>IFERROR(R17*'קבלני משנה '!J43,"")</f>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="E17" s="413">
         <f t="shared" si="3"/>
-        <v>0.36293249455601262</v>
+        <v>0.51491096331259389</v>
       </c>
       <c r="F17" s="403" t="str">
         <f t="shared" ref="F17:F26" si="13">IF($G$5&gt;0,C17,"")</f>
@@ -11230,7 +11234,7 @@
       </c>
       <c r="X17" s="184">
         <f>D17</f>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="Y17" s="165">
         <f>IF(D17=0,"",W17)</f>
@@ -11393,11 +11397,11 @@
       </c>
       <c r="D20" s="386">
         <f>IFERROR(SUM(D17:D18),"")</f>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="E20" s="413">
         <f t="shared" si="3"/>
-        <v>0.36293249455601262</v>
+        <v>0.51491096331259389</v>
       </c>
       <c r="F20" s="404" t="str">
         <f t="shared" si="13"/>
@@ -11465,7 +11469,7 @@
       </c>
       <c r="E21" s="413">
         <f t="shared" si="3"/>
-        <v>0.12170336317444955</v>
+        <v>0.10791675606093112</v>
       </c>
       <c r="F21" s="404" t="str">
         <f t="shared" si="13"/>
@@ -11811,7 +11815,7 @@
       </c>
       <c r="D26" s="388">
         <f>IFERROR(D15+D16+D20+D21+D22+D23+D24+D25,"")</f>
-        <v>68883.333333333328</v>
+        <v>77683.333333333328</v>
       </c>
       <c r="E26" s="414">
         <f>IFERROR(IF($D$26&gt;0,D26/$D$26,0),0)</f>
@@ -11862,7 +11866,7 @@
       </c>
       <c r="D27" s="389">
         <f>IFERROR(+D26-D18,"")</f>
-        <v>68883.333333333328</v>
+        <v>77683.333333333328</v>
       </c>
       <c r="E27" s="415">
         <f>IFERROR(IF($D$26&gt;0,D27/$D$26,0),0)</f>
@@ -38458,7 +38462,7 @@
       </c>
       <c r="C254" s="354">
         <f>+'ראשי-פרטים כלליים וריכוז הוצאות'!F8</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE254" s="118"/>
     </row>
@@ -38801,12 +38805,12 @@
   </sheetPr>
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C255" sqref="C255"/>
       <selection pane="topRight" activeCell="C255" sqref="C255"/>
       <selection pane="bottomLeft" activeCell="C255" sqref="C255"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -38950,7 +38954,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="176">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F3" s="177" t="s">
         <v>45</v>
@@ -38958,7 +38962,7 @@
       <c r="G3" s="177"/>
       <c r="H3" s="199">
         <f>E3*D3</f>
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="I3" s="68">
         <f t="shared" ref="I3" si="0">D3</f>
@@ -38966,7 +38970,7 @@
       </c>
       <c r="J3" s="20">
         <f t="shared" ref="J3" si="1">E3</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K3" s="101">
         <f t="shared" ref="K3" si="2">IF($N$1&gt;0,1-$N$1,100%)</f>
@@ -38974,7 +38978,7 @@
       </c>
       <c r="L3" s="30">
         <f>I3*J3*K3</f>
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="M3" s="31"/>
       <c r="N3" s="33" t="str">
@@ -38988,7 +38992,7 @@
       </c>
       <c r="Q3" s="19">
         <f>J3</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R3" s="29">
         <f t="shared" ref="R3" si="4">IF($U$1&gt;0,((1-$U$1)*(1-$N$1)),K3)</f>
@@ -38996,7 +39000,7 @@
       </c>
       <c r="S3" s="38">
         <f>P3*Q3*R3</f>
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="33" t="str">
@@ -39017,7 +39021,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="176">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F4" s="177" t="s">
         <v>45</v>
@@ -39025,7 +39029,7 @@
       <c r="G4" s="177"/>
       <c r="H4" s="199">
         <f t="shared" ref="H4" si="6">E4*D4</f>
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="I4" s="68">
         <f t="shared" ref="I4" si="7">D4</f>
@@ -39033,7 +39037,7 @@
       </c>
       <c r="J4" s="20">
         <f t="shared" ref="J4" si="8">E4</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K4" s="101">
         <f t="shared" ref="K4" si="9">IF($N$1&gt;0,1-$N$1,100%)</f>
@@ -39041,7 +39045,7 @@
       </c>
       <c r="L4" s="30">
         <f t="shared" ref="L4" si="10">I4*J4*K4</f>
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="M4" s="31"/>
       <c r="N4" s="33" t="str">
@@ -39055,7 +39059,7 @@
       </c>
       <c r="Q4" s="19">
         <f t="shared" ref="Q4" si="13">J4</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R4" s="29">
         <f t="shared" ref="R4" si="14">IF($U$1&gt;0,((1-$U$1)*(1-$N$1)),K4)</f>
@@ -39063,7 +39067,7 @@
       </c>
       <c r="S4" s="38">
         <f t="shared" ref="S4" si="15">P4*Q4*R4</f>
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="33" t="str">
@@ -39081,7 +39085,7 @@
       </c>
       <c r="C5" s="175"/>
       <c r="D5" s="176">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E5" s="176">
         <v>100</v>
@@ -39092,11 +39096,11 @@
       <c r="G5" s="177"/>
       <c r="H5" s="199">
         <f t="shared" ref="H5:H42" si="17">E5*D5</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I5" s="68">
         <f t="shared" ref="I5" si="18">D5</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" ref="J5" si="19">E5</f>
@@ -39108,7 +39112,7 @@
       </c>
       <c r="L5" s="30">
         <f t="shared" ref="L5" si="21">I5*J5*K5</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M5" s="31"/>
       <c r="N5" s="33" t="str">
@@ -39118,7 +39122,7 @@
       <c r="O5" s="49"/>
       <c r="P5" s="32">
         <f t="shared" ref="P5" si="23">I5</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="19">
         <f t="shared" ref="Q5" si="24">J5</f>
@@ -39130,7 +39134,7 @@
       </c>
       <c r="S5" s="38">
         <f t="shared" ref="S5" si="26">P5*Q5*R5</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="T5" s="31"/>
       <c r="U5" s="33" t="str">
@@ -39151,7 +39155,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="176">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F6" s="177" t="s">
         <v>45</v>
@@ -39159,7 +39163,7 @@
       <c r="G6" s="177"/>
       <c r="H6" s="199">
         <f t="shared" si="17"/>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I6" s="68">
         <f t="shared" ref="I6:I42" si="28">D6</f>
@@ -39167,7 +39171,7 @@
       </c>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J42" si="29">E6</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K6" s="101">
         <f t="shared" ref="K6:K42" si="30">IF($N$1&gt;0,1-$N$1,100%)</f>
@@ -39175,7 +39179,7 @@
       </c>
       <c r="L6" s="30">
         <f t="shared" ref="L6" si="31">I6*J6*K6</f>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="M6" s="31"/>
       <c r="N6" s="33" t="str">
@@ -39189,7 +39193,7 @@
       </c>
       <c r="Q6" s="19">
         <f t="shared" ref="Q6" si="34">J6</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R6" s="29">
         <f t="shared" ref="R6:R42" si="35">IF($U$1&gt;0,((1-$U$1)*(1-$N$1)),K6)</f>
@@ -39197,7 +39201,7 @@
       </c>
       <c r="S6" s="38">
         <f t="shared" ref="S6" si="36">P6*Q6*R6</f>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="T6" s="31"/>
       <c r="U6" s="33" t="str">
@@ -39285,7 +39289,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="109">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F8" s="110" t="s">
         <v>45</v>
@@ -39293,7 +39297,7 @@
       <c r="G8" s="110"/>
       <c r="H8" s="199">
         <f t="shared" si="17"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I8" s="68">
         <f t="shared" si="28"/>
@@ -39301,7 +39305,7 @@
       </c>
       <c r="J8" s="20">
         <f t="shared" si="29"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K8" s="101">
         <f t="shared" si="30"/>
@@ -39309,7 +39313,7 @@
       </c>
       <c r="L8" s="30">
         <f t="shared" si="38"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M8" s="31"/>
       <c r="N8" s="33" t="str">
@@ -39323,7 +39327,7 @@
       </c>
       <c r="Q8" s="19">
         <f t="shared" si="40"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R8" s="29">
         <f t="shared" si="35"/>
@@ -39331,7 +39335,7 @@
       </c>
       <c r="S8" s="38">
         <f t="shared" si="41"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="T8" s="31"/>
       <c r="U8" s="33" t="str">
@@ -39352,7 +39356,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="109">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>45</v>
@@ -39360,7 +39364,7 @@
       <c r="G9" s="110"/>
       <c r="H9" s="199">
         <f t="shared" si="17"/>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I9" s="68">
         <f t="shared" si="28"/>
@@ -39368,7 +39372,7 @@
       </c>
       <c r="J9" s="20">
         <f t="shared" si="29"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K9" s="101">
         <f t="shared" si="30"/>
@@ -39376,7 +39380,7 @@
       </c>
       <c r="L9" s="30">
         <f t="shared" si="38"/>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="M9" s="31"/>
       <c r="N9" s="33" t="str">
@@ -39390,7 +39394,7 @@
       </c>
       <c r="Q9" s="19">
         <f t="shared" si="40"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R9" s="29">
         <f t="shared" si="35"/>
@@ -39398,7 +39402,7 @@
       </c>
       <c r="S9" s="38">
         <f t="shared" si="41"/>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="T9" s="31"/>
       <c r="U9" s="33" t="str">
@@ -39419,7 +39423,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="109">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>45</v>
@@ -39427,7 +39431,7 @@
       <c r="G10" s="110"/>
       <c r="H10" s="199">
         <f t="shared" si="17"/>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I10" s="68">
         <f t="shared" si="28"/>
@@ -39435,7 +39439,7 @@
       </c>
       <c r="J10" s="20">
         <f t="shared" si="29"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K10" s="101">
         <f t="shared" si="30"/>
@@ -39443,7 +39447,7 @@
       </c>
       <c r="L10" s="30">
         <f t="shared" si="38"/>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="M10" s="31"/>
       <c r="N10" s="33" t="str">
@@ -39457,7 +39461,7 @@
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="40"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R10" s="29">
         <f t="shared" si="35"/>
@@ -39465,7 +39469,7 @@
       </c>
       <c r="S10" s="38">
         <f t="shared" si="41"/>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="T10" s="31"/>
       <c r="U10" s="33" t="str">
@@ -39486,7 +39490,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="109">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F11" s="110" t="s">
         <v>45</v>
@@ -39494,7 +39498,7 @@
       <c r="G11" s="110"/>
       <c r="H11" s="199">
         <f t="shared" si="17"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I11" s="68">
         <f t="shared" si="28"/>
@@ -39502,7 +39506,7 @@
       </c>
       <c r="J11" s="20">
         <f t="shared" si="29"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K11" s="101">
         <f t="shared" si="30"/>
@@ -39510,7 +39514,7 @@
       </c>
       <c r="L11" s="30">
         <f t="shared" si="38"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="33" t="str">
@@ -39524,7 +39528,7 @@
       </c>
       <c r="Q11" s="19">
         <f t="shared" si="40"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R11" s="29">
         <f t="shared" si="35"/>
@@ -39532,7 +39536,7 @@
       </c>
       <c r="S11" s="38">
         <f t="shared" si="41"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="T11" s="31"/>
       <c r="U11" s="33" t="str">
@@ -41398,14 +41402,14 @@
       <c r="G43" s="375"/>
       <c r="H43" s="366">
         <f>SUM(H3:H42)</f>
-        <v>35500</v>
+        <v>29300</v>
       </c>
       <c r="I43" s="368"/>
       <c r="J43" s="369"/>
       <c r="K43" s="102"/>
       <c r="L43" s="366">
         <f>SUM(L3:L42)</f>
-        <v>35500</v>
+        <v>29300</v>
       </c>
       <c r="M43" s="71"/>
       <c r="N43" s="370"/>
@@ -41415,7 +41419,7 @@
       <c r="R43" s="70"/>
       <c r="S43" s="366">
         <f>SUM(S3:S42)</f>
-        <v>35500</v>
+        <v>29300</v>
       </c>
       <c r="T43" s="71"/>
       <c r="U43" s="370"/>
@@ -41471,14 +41475,14 @@
       <c r="G45" s="200"/>
       <c r="H45" s="200">
         <f>SUM(H43:H44)</f>
-        <v>35500</v>
+        <v>29300</v>
       </c>
       <c r="I45" s="69"/>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
       <c r="L45" s="34">
         <f>SUM(L43:L44)</f>
-        <v>35500</v>
+        <v>29300</v>
       </c>
       <c r="M45" s="35"/>
       <c r="N45" s="36"/>
@@ -41488,7 +41492,7 @@
       <c r="R45" s="39"/>
       <c r="S45" s="39">
         <f>SUM(S43:S44)</f>
-        <v>35500</v>
+        <v>29300</v>
       </c>
       <c r="T45" s="41"/>
       <c r="U45" s="42"/>
@@ -41798,7 +41802,7 @@
       <selection activeCell="C255" sqref="C255"/>
       <selection pane="topRight" activeCell="C255" sqref="C255"/>
       <selection pane="bottomLeft" activeCell="C255" sqref="C255"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -42036,7 +42040,7 @@
         <v>143</v>
       </c>
       <c r="F4" s="176">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G4" s="188">
         <v>1</v>
@@ -42047,7 +42051,7 @@
       <c r="I4" s="177"/>
       <c r="J4" s="199">
         <f>IF(D4&gt;0,F4*G4,0)</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K4" s="32">
         <f t="shared" ref="K4" si="6">+G4</f>
@@ -42055,7 +42059,7 @@
       </c>
       <c r="L4" s="32">
         <f t="shared" ref="L4" si="7">+K4*F4</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M4" s="101">
         <f t="shared" ref="M4" si="8">IF($P$1&gt;0,1-$P$1,100%)</f>
@@ -42063,7 +42067,7 @@
       </c>
       <c r="N4" s="30">
         <f t="shared" ref="N4" si="9">L4*M4</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O4" s="31"/>
       <c r="P4" s="75" t="str">
@@ -42073,7 +42077,7 @@
       <c r="Q4" s="49"/>
       <c r="R4" s="68">
         <f t="shared" ref="R4" si="11">L4</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="S4" s="29">
         <f t="shared" ref="S4" si="12">IF($W$1&gt;0,((1-$W$1)*(1-$P$1)),M4)</f>
@@ -42081,7 +42085,7 @@
       </c>
       <c r="T4" s="38">
         <f t="shared" ref="T4" si="13">R4*S4</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="U4" s="98" t="str">
         <f>IF(COUNTA('ראשי-פרטים כלליים וריכוז הוצאות'!$K$5,'ראשי-פרטים כלליים וריכוז הוצאות'!$K$7,'ראשי-פרטים כלליים וריכוז הוצאות'!$K$9)&lt;3,"תקציבאי: נא מלא פרטיך בגליון המרכז",IF(T4=0,"",(IF(T4/'ראשי-פרטים כלליים וריכוז הוצאות'!$K$26&gt;0.299999,"שים לב: זהו קבלן משנה עיקרי ונדרש תקציב ברמת חברה",""))))</f>
@@ -42117,7 +42121,7 @@
         <v>143</v>
       </c>
       <c r="F5" s="176">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="188">
         <v>1</v>
@@ -42128,7 +42132,7 @@
       <c r="I5" s="177"/>
       <c r="J5" s="199">
         <f>IF(D5&gt;0,F5*G5,0)</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K5" s="32">
         <f t="shared" ref="K5" si="15">+G5</f>
@@ -42136,7 +42140,7 @@
       </c>
       <c r="L5" s="32">
         <f t="shared" ref="L5" si="16">+K5*F5</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M5" s="101">
         <f t="shared" ref="M5" si="17">IF($P$1&gt;0,1-$P$1,100%)</f>
@@ -42144,7 +42148,7 @@
       </c>
       <c r="N5" s="30">
         <f t="shared" ref="N5" si="18">L5*M5</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O5" s="31"/>
       <c r="P5" s="75" t="str">
@@ -42154,7 +42158,7 @@
       <c r="Q5" s="49"/>
       <c r="R5" s="68">
         <f t="shared" ref="R5" si="20">L5</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="S5" s="29">
         <f t="shared" ref="S5" si="21">IF($W$1&gt;0,((1-$W$1)*(1-$P$1)),M5)</f>
@@ -42162,7 +42166,7 @@
       </c>
       <c r="T5" s="38">
         <f t="shared" ref="T5" si="22">R5*S5</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="U5" s="98" t="str">
         <f>IF(COUNTA('ראשי-פרטים כלליים וריכוז הוצאות'!$K$5,'ראשי-פרטים כלליים וריכוז הוצאות'!$K$7,'ראשי-פרטים כלליים וריכוז הוצאות'!$K$9)&lt;3,"תקציבאי: נא מלא פרטיך בגליון המרכז",IF(T5=0,"",(IF(T5/'ראשי-פרטים כלליים וריכוז הוצאות'!$K$26&gt;0.299999,"שים לב: זהו קבלן משנה עיקרי ונדרש תקציב ברמת חברה",""))))</f>
@@ -44799,7 +44803,7 @@
       <c r="I43" s="213"/>
       <c r="J43" s="202">
         <f>SUMIF($D$3:$D$42,"ארץ",$J$3:$J$42)+SUMIF($D$4:$D$42,"פריפריה",$J$4:$J$42)</f>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="K43" s="91" t="s">
         <v>151</v>
@@ -44813,7 +44817,7 @@
       </c>
       <c r="N43" s="90">
         <f>SUMIF($D$3:$D$42,"ארץ",$N$3:$N$42)+SUMIF($D$4:$D$42,"פריפריה",$N$4:$N$42)</f>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O43" s="30"/>
       <c r="P43" s="79"/>
@@ -44827,7 +44831,7 @@
       </c>
       <c r="T43" s="93">
         <f>SUMIF($D$3:$D$42,"ארץ",$T$3:$T$42)+SUMIF($D$4:$D$42,"פריפריה",$T$4:$T$42)</f>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="U43" s="93"/>
       <c r="V43" s="93" t="s">
@@ -44896,7 +44900,7 @@
       <c r="I45" s="214"/>
       <c r="J45" s="203">
         <f>J43+J44</f>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
@@ -44905,7 +44909,7 @@
       </c>
       <c r="N45" s="146">
         <f>N43+N44</f>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O45" s="35"/>
       <c r="P45" s="147"/>
@@ -44916,7 +44920,7 @@
       </c>
       <c r="T45" s="150">
         <f>T43+T44</f>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="U45" s="150"/>
       <c r="V45" s="41"/>
@@ -45331,7 +45335,7 @@
       <selection activeCell="C255" sqref="C255"/>
       <selection pane="topRight" activeCell="C255" sqref="C255"/>
       <selection pane="bottomLeft" activeCell="C255" sqref="C255"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -45371,21 +45375,21 @@
       </c>
       <c r="D1" s="238">
         <f>DATEDIF('ראשי-פרטים כלליים וריכוז הוצאות'!$F$6,'ראשי-פרטים כלליים וריכוז הוצאות'!$F$7+1,"m")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E1" s="239" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="240">
         <f>'ראשי-פרטים כלליים וריכוז הוצאות'!F6</f>
-        <v>0</v>
+        <v>45809</v>
       </c>
       <c r="G1" s="239" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="240">
         <f>'ראשי-פרטים כלליים וריכוז הוצאות'!F7</f>
-        <v>0</v>
+        <v>46173</v>
       </c>
       <c r="I1" s="250"/>
       <c r="J1" s="248"/>
@@ -46702,15 +46706,9 @@
       </c>
       <c r="B19" s="108"/>
       <c r="C19" s="108"/>
-      <c r="D19" s="113">
-        <v>45663</v>
-      </c>
-      <c r="E19" s="114">
-        <v>1</v>
-      </c>
-      <c r="F19" s="115">
-        <v>12</v>
-      </c>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
       <c r="G19" s="116"/>
       <c r="H19" s="204">
         <f t="shared" si="2"/>
@@ -46721,11 +46719,11 @@
       <c r="K19" s="444"/>
       <c r="L19" s="62">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="21">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N19" s="81">
         <f t="shared" si="29"/>
@@ -46743,11 +46741,11 @@
       <c r="R19" s="49"/>
       <c r="S19" s="63">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U19" s="20">
         <f t="shared" si="32"/>
@@ -49243,7 +49241,7 @@
       <selection activeCell="C255" sqref="C255"/>
       <selection pane="topRight" activeCell="C255" sqref="C255"/>
       <selection pane="bottomLeft" activeCell="C255" sqref="C255"/>
-      <selection pane="bottomRight" sqref="A1:C1"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -51597,12 +51595,12 @@
   </sheetPr>
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C255" sqref="C255"/>
       <selection pane="topRight" activeCell="C255" sqref="C255"/>
       <selection pane="bottomLeft" activeCell="C255" sqref="C255"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -55064,7 +55062,7 @@
       <selection activeCell="C255" sqref="C255"/>
       <selection pane="topRight" activeCell="C255" sqref="C255"/>
       <selection pane="bottomLeft" activeCell="C255" sqref="C255"/>
-      <selection pane="bottomRight" sqref="A1:C1"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
